--- a/Project Proposal/Gantt Chart.xlsx
+++ b/Project Proposal/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hasanenesguray/Desktop/WU/Course Materials/MSc Project/Project Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A5948D-BF37-F946-ABB5-B5392DF6E1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6703B-8711-DB4C-BFA3-11E2FBF028D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{516B5B0C-1A8D-4B98-A0B8-68BDB20D4F6B}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="15960" xr2:uid="{516B5B0C-1A8D-4B98-A0B8-68BDB20D4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>[PROJECT NAME] - Basic Gantt Chart Excel Template</t>
   </si>
@@ -77,12 +77,6 @@
   <si>
     <t>END
 DATE</t>
-  </si>
-  <si>
-    <t>Task 10</t>
-  </si>
-  <si>
-    <t>Task 11</t>
   </si>
   <si>
     <t>Task 12</t>
@@ -521,12 +515,6 @@
     <t>Gather all data sources</t>
   </si>
   <si>
-    <t>Sentiment and statistical anaysis</t>
-  </si>
-  <si>
-    <t>Identify data quality issues</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -536,9 +524,6 @@
     <t>Store and preprocess data</t>
   </si>
   <si>
-    <t>Evaluation findings and recognize patterns</t>
-  </si>
-  <si>
     <t>2 weeks</t>
   </si>
   <si>
@@ -548,10 +533,46 @@
     <t>3 weeks</t>
   </si>
   <si>
-    <t>4 weeks</t>
-  </si>
-  <si>
     <t>1 day</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Data Collection and Preprocessing</t>
+  </si>
+  <si>
+    <t>Identify data quality issues (Exploratory Data Analysis)</t>
+  </si>
+  <si>
+    <t>Experiment various analysis techniques</t>
+  </si>
+  <si>
+    <t>Refine the models</t>
+  </si>
+  <si>
+    <t>Comparative Analysis</t>
+  </si>
+  <si>
+    <t>Conduct a detailed comparative analysis</t>
+  </si>
+  <si>
+    <t>Identify sentiment patterns</t>
+  </si>
+  <si>
+    <t>Extract valuable insights</t>
+  </si>
+  <si>
+    <t>Write the report</t>
+  </si>
+  <si>
+    <t>Compile research findings</t>
+  </si>
+  <si>
+    <t>Create visualisations</t>
+  </si>
+  <si>
+    <t>Prepare presentation</t>
   </si>
 </sst>
 </file>
@@ -564,7 +585,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,8 +776,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,8 +827,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -986,11 +1026,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1135,6 +1489,51 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1147,76 +1546,250 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,8 +1881,8 @@
         <xdr:to>
           <xdr:col>66</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1707,18 +2280,18 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO29"/>
+  <dimension ref="A1:BN37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomLeft" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="4" hidden="1" customWidth="1"/>
@@ -1728,7 +2301,7 @@
     <col min="67" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="26" customFormat="1" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" s="26" customFormat="1" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1804,59 +2377,59 @@
       <c r="BM1" s="35"/>
       <c r="BN1" s="35"/>
     </row>
-    <row r="2" spans="1:67" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:67" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:66" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
       <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68">
         <v>44564</v>
       </c>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
       <c r="AF3" s="33"/>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="32"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
       <c r="AQ3" s="46"/>
       <c r="AZ3" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="1" customFormat="1" ht="18" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" s="1" customFormat="1" ht="18" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="36" t="s">
         <v>6</v>
@@ -1921,98 +2494,98 @@
       <c r="BI4" s="12"/>
       <c r="BJ4" s="12"/>
     </row>
-    <row r="5" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="56" t="s">
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="56" t="s">
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="56" t="s">
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="56" t="s">
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="56" t="s">
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="56" t="s">
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="56" t="s">
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="56" t="s">
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="57"/>
-      <c r="AZ5" s="56" t="s">
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="57"/>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF5" s="57"/>
-      <c r="BG5" s="57"/>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="57"/>
-      <c r="BJ5" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK5" s="57"/>
-      <c r="BL5" s="57"/>
-      <c r="BM5" s="57"/>
-      <c r="BN5" s="57"/>
-    </row>
-    <row r="6" spans="1:67" s="7" customFormat="1" ht="59" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="66"/>
+      <c r="BN5" s="66"/>
+    </row>
+    <row r="6" spans="1:66" s="7" customFormat="1" ht="59" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2027,7 +2600,7 @@
         <v>44565</v>
       </c>
       <c r="I6" s="13">
-        <f t="shared" ref="I6:BN6" si="0">WORKDAY(H6, 1)</f>
+        <f t="shared" ref="I6:K6" si="0">WORKDAY(H6, 1)</f>
         <v>44566</v>
       </c>
       <c r="J6" s="13">
@@ -2043,7 +2616,7 @@
         <v>44564</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" ref="M6:AR6" si="1">WORKDAY(L6, 1)</f>
+        <f t="shared" ref="M6" si="1">WORKDAY(L6, 1)</f>
         <v>44565</v>
       </c>
       <c r="N6" s="13">
@@ -2063,7 +2636,7 @@
         <v>44564</v>
       </c>
       <c r="R6" s="13">
-        <f t="shared" ref="R6:AW6" si="5">WORKDAY(Q6, 1)</f>
+        <f t="shared" ref="R6" si="5">WORKDAY(Q6, 1)</f>
         <v>44565</v>
       </c>
       <c r="S6" s="13">
@@ -2083,7 +2656,7 @@
         <v>44564</v>
       </c>
       <c r="W6" s="13">
-        <f t="shared" ref="W6:BN6" si="9">WORKDAY(V6, 1)</f>
+        <f t="shared" ref="W6" si="9">WORKDAY(V6, 1)</f>
         <v>44565</v>
       </c>
       <c r="X6" s="13">
@@ -2103,7 +2676,7 @@
         <v>44564</v>
       </c>
       <c r="AB6" s="13">
-        <f t="shared" ref="AB6:BN6" si="13">WORKDAY(AA6, 1)</f>
+        <f t="shared" ref="AB6" si="13">WORKDAY(AA6, 1)</f>
         <v>44565</v>
       </c>
       <c r="AC6" s="13">
@@ -2123,7 +2696,7 @@
         <v>44564</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" ref="AG6:BN6" si="17">WORKDAY(AF6, 1)</f>
+        <f t="shared" ref="AG6" si="17">WORKDAY(AF6, 1)</f>
         <v>44565</v>
       </c>
       <c r="AH6" s="13">
@@ -2143,7 +2716,7 @@
         <v>44564</v>
       </c>
       <c r="AL6" s="13">
-        <f t="shared" ref="AL6:BN6" si="21">WORKDAY(AK6, 1)</f>
+        <f t="shared" ref="AL6" si="21">WORKDAY(AK6, 1)</f>
         <v>44565</v>
       </c>
       <c r="AM6" s="13">
@@ -2163,7 +2736,7 @@
         <v>44564</v>
       </c>
       <c r="AQ6" s="13">
-        <f t="shared" ref="AQ6:BN6" si="25">WORKDAY(AP6, 1)</f>
+        <f t="shared" ref="AQ6" si="25">WORKDAY(AP6, 1)</f>
         <v>44565</v>
       </c>
       <c r="AR6" s="13">
@@ -2183,7 +2756,7 @@
         <v>44564</v>
       </c>
       <c r="AV6" s="13">
-        <f t="shared" ref="AV6:BN6" si="29">WORKDAY(AU6, 1)</f>
+        <f t="shared" ref="AV6" si="29">WORKDAY(AU6, 1)</f>
         <v>44565</v>
       </c>
       <c r="AW6" s="13">
@@ -2203,7 +2776,7 @@
         <v>44564</v>
       </c>
       <c r="BA6" s="13">
-        <f t="shared" ref="BA6:BN6" si="33">WORKDAY(AZ6, 1)</f>
+        <f t="shared" ref="BA6" si="33">WORKDAY(AZ6, 1)</f>
         <v>44565</v>
       </c>
       <c r="BB6" s="13">
@@ -2223,7 +2796,7 @@
         <v>44564</v>
       </c>
       <c r="BF6" s="13">
-        <f t="shared" ref="BF6:BN6" si="37">WORKDAY(BE6, 1)</f>
+        <f t="shared" ref="BF6" si="37">WORKDAY(BE6, 1)</f>
         <v>44565</v>
       </c>
       <c r="BG6" s="13">
@@ -2243,7 +2816,7 @@
         <v>44564</v>
       </c>
       <c r="BK6" s="13">
-        <f t="shared" ref="BK6:BN6" si="41">WORKDAY(BJ6, 1)</f>
+        <f t="shared" ref="BK6" si="41">WORKDAY(BJ6, 1)</f>
         <v>44565</v>
       </c>
       <c r="BL6" s="13">
@@ -2259,108 +2832,108 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61" t="s">
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61" t="s">
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61" t="s">
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="61" t="s">
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="61" t="s">
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="61" t="s">
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="61" t="s">
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="61" t="s">
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF7" s="60"/>
-      <c r="BG7" s="60"/>
-      <c r="BH7" s="60"/>
-      <c r="BI7" s="60"/>
-      <c r="BJ7" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK7" s="60"/>
-      <c r="BL7" s="60"/>
-      <c r="BM7" s="60"/>
-      <c r="BN7" s="60"/>
-    </row>
-    <row r="8" spans="1:67" s="5" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="64"/>
+    </row>
+    <row r="8" spans="1:66" s="5" customFormat="1" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
       <c r="C8" s="45"/>
       <c r="D8" s="48"/>
@@ -2423,1457 +2996,1396 @@
       <c r="BI8" s="14"/>
       <c r="BJ8" s="14"/>
     </row>
-    <row r="9" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69" t="s">
+    <row r="9" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58"/>
+      <c r="C9" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="80"/>
+      <c r="AT9" s="80"/>
+      <c r="AU9" s="80"/>
+      <c r="AV9" s="80"/>
+      <c r="AW9" s="80"/>
+      <c r="AX9" s="80"/>
+      <c r="AY9" s="80"/>
+      <c r="AZ9" s="80"/>
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="80"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="80"/>
+      <c r="BJ9" s="80"/>
+      <c r="BK9" s="81"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="81"/>
+      <c r="BN9" s="82"/>
+    </row>
+    <row r="10" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="58"/>
+      <c r="C10" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="97">
+        <v>44564</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="57">
+        <v>2</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="56"/>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="56"/>
+      <c r="BK10" s="56"/>
+      <c r="BL10" s="56"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="83"/>
+    </row>
+    <row r="11" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="58"/>
+      <c r="C11" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="97">
+        <v>44571</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="57">
+        <v>2</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
+      <c r="BK11" s="56"/>
+      <c r="BL11" s="56"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="83"/>
+    </row>
+    <row r="12" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58"/>
+      <c r="C12" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="70">
-        <v>44564</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="67">
+      <c r="D12" s="97">
+        <v>44580</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="57">
         <v>2</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="66"/>
-      <c r="BA9" s="66"/>
-      <c r="BB9" s="66"/>
-      <c r="BC9" s="66"/>
-      <c r="BD9" s="66"/>
-      <c r="BE9" s="66"/>
-      <c r="BF9" s="66"/>
-      <c r="BG9" s="66"/>
-      <c r="BH9" s="66"/>
-      <c r="BI9" s="66"/>
-      <c r="BJ9" s="66"/>
-      <c r="BK9" s="66"/>
-      <c r="BL9" s="66"/>
-      <c r="BM9" s="66"/>
-      <c r="BN9" s="66"/>
-      <c r="BO9" s="59"/>
-    </row>
-    <row r="10" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="70">
-        <v>44571</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="67">
-        <v>2</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
-      <c r="BA10" s="66"/>
-      <c r="BB10" s="66"/>
-      <c r="BC10" s="66"/>
-      <c r="BD10" s="66"/>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="66"/>
-      <c r="BJ10" s="66"/>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="59"/>
-    </row>
-    <row r="11" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="70">
-        <v>44580</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="67">
-        <v>2</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
-      <c r="BA11" s="66"/>
-      <c r="BB11" s="66"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="66"/>
-      <c r="BE11" s="66"/>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="66"/>
-      <c r="BI11" s="66"/>
-      <c r="BJ11" s="66"/>
-      <c r="BK11" s="66"/>
-      <c r="BL11" s="66"/>
-      <c r="BM11" s="66"/>
-      <c r="BN11" s="66"/>
-      <c r="BO11" s="59"/>
-    </row>
-    <row r="12" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="70">
-        <v>44582</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="47">
-        <v>2</v>
-      </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="75"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="66"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="66"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="66"/>
-      <c r="BK12" s="66"/>
-      <c r="BL12" s="66"/>
-      <c r="BM12" s="66"/>
-      <c r="BN12" s="66"/>
-      <c r="BO12" s="59"/>
-    </row>
-    <row r="13" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69" t="s">
+      <c r="Q12" s="61"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="56"/>
+      <c r="BD12" s="56"/>
+      <c r="BE12" s="56"/>
+      <c r="BF12" s="56"/>
+      <c r="BG12" s="56"/>
+      <c r="BH12" s="56"/>
+      <c r="BI12" s="56"/>
+      <c r="BJ12" s="56"/>
+      <c r="BK12" s="56"/>
+      <c r="BL12" s="56"/>
+      <c r="BM12" s="56"/>
+      <c r="BN12" s="83"/>
+    </row>
+    <row r="13" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="58"/>
+      <c r="C13" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="70">
-        <v>44589</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>65</v>
+      <c r="D13" s="97">
+        <v>44582</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="47">
         <v>2</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="75"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="61"/>
       <c r="R13" s="62"/>
       <c r="S13" s="62"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="75"/>
+      <c r="V13" s="61"/>
       <c r="W13" s="62"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
       <c r="Z13" s="62"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="66"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="66"/>
-      <c r="BF13" s="66"/>
-      <c r="BG13" s="66"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="66"/>
-      <c r="BJ13" s="66"/>
-      <c r="BK13" s="66"/>
-      <c r="BL13" s="66"/>
-      <c r="BM13" s="66"/>
-      <c r="BN13" s="66"/>
-      <c r="BO13" s="59"/>
-    </row>
-    <row r="14" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69" t="s">
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="56"/>
+      <c r="BA13" s="56"/>
+      <c r="BB13" s="56"/>
+      <c r="BC13" s="56"/>
+      <c r="BD13" s="56"/>
+      <c r="BE13" s="56"/>
+      <c r="BF13" s="56"/>
+      <c r="BG13" s="56"/>
+      <c r="BH13" s="56"/>
+      <c r="BI13" s="56"/>
+      <c r="BJ13" s="56"/>
+      <c r="BK13" s="56"/>
+      <c r="BL13" s="56"/>
+      <c r="BM13" s="56"/>
+      <c r="BN13" s="83"/>
+    </row>
+    <row r="14" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="58"/>
+      <c r="C14" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="100">
+        <v>44591</v>
+      </c>
+      <c r="E14" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="70">
-        <v>44591</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="47">
-        <v>2</v>
-      </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="66"/>
-      <c r="BC14" s="66"/>
-      <c r="BD14" s="66"/>
-      <c r="BE14" s="66"/>
-      <c r="BF14" s="66"/>
-      <c r="BG14" s="66"/>
-      <c r="BH14" s="66"/>
-      <c r="BI14" s="66"/>
-      <c r="BJ14" s="66"/>
-      <c r="BK14" s="66"/>
-      <c r="BL14" s="66"/>
-      <c r="BM14" s="66"/>
-      <c r="BN14" s="66"/>
-      <c r="BO14" s="59"/>
-    </row>
-    <row r="15" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69" t="s">
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="91"/>
+      <c r="BG14" s="91"/>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="91"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="91"/>
+      <c r="BN14" s="92"/>
+    </row>
+    <row r="15" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="58"/>
+      <c r="C15" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="70">
-        <v>44596</v>
-      </c>
-      <c r="E15" s="71" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="106"/>
+      <c r="AJ15" s="106"/>
+      <c r="AK15" s="106"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="106"/>
+      <c r="AN15" s="106"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="106"/>
+      <c r="AY15" s="106"/>
+      <c r="AZ15" s="106"/>
+      <c r="BA15" s="106"/>
+      <c r="BB15" s="106"/>
+      <c r="BC15" s="106"/>
+      <c r="BD15" s="106"/>
+      <c r="BE15" s="106"/>
+      <c r="BF15" s="106"/>
+      <c r="BG15" s="106"/>
+      <c r="BH15" s="106"/>
+      <c r="BI15" s="106"/>
+      <c r="BJ15" s="106"/>
+      <c r="BK15" s="106"/>
+      <c r="BL15" s="106"/>
+      <c r="BM15" s="106"/>
+      <c r="BN15" s="107"/>
+    </row>
+    <row r="16" spans="1:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="58"/>
+      <c r="C16" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="47">
-        <v>2</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="77"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="66"/>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="BH15" s="66"/>
-      <c r="BI15" s="66"/>
-      <c r="BJ15" s="66"/>
-      <c r="BK15" s="66"/>
-      <c r="BL15" s="66"/>
-      <c r="BM15" s="66"/>
-      <c r="BN15" s="66"/>
-      <c r="BO15" s="59"/>
-    </row>
-    <row r="16" spans="1:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="74"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="74"/>
+      <c r="BK16" s="74"/>
+      <c r="BL16" s="74"/>
+      <c r="BM16" s="74"/>
+      <c r="BN16" s="108"/>
+    </row>
+    <row r="17" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="58"/>
+      <c r="C17" s="142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="144" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="109"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="109"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="91"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="91"/>
+      <c r="BG17" s="91"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
+      <c r="BJ17" s="91"/>
+      <c r="BK17" s="91"/>
+      <c r="BL17" s="91"/>
+      <c r="BM17" s="91"/>
+      <c r="BN17" s="92"/>
+    </row>
+    <row r="18" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="58"/>
+      <c r="C18" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+      <c r="AY18" s="106"/>
+      <c r="AZ18" s="106"/>
+      <c r="BA18" s="106"/>
+      <c r="BB18" s="106"/>
+      <c r="BC18" s="106"/>
+      <c r="BD18" s="106"/>
+      <c r="BE18" s="106"/>
+      <c r="BF18" s="106"/>
+      <c r="BG18" s="106"/>
+      <c r="BH18" s="106"/>
+      <c r="BI18" s="106"/>
+      <c r="BJ18" s="106"/>
+      <c r="BK18" s="106"/>
+      <c r="BL18" s="106"/>
+      <c r="BM18" s="106"/>
+      <c r="BN18" s="107"/>
+    </row>
+    <row r="19" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58"/>
+      <c r="C19" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="97">
+        <v>44589</v>
+      </c>
+      <c r="E19" s="98" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="70">
-        <v>44600</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="47">
-        <v>2</v>
-      </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="72"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-      <c r="BO16" s="59"/>
-    </row>
-    <row r="17" spans="2:67" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="70">
-        <v>44602</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="63">
-        <v>2</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="79"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="79"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="66"/>
-      <c r="BB17" s="66"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="66"/>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="BH17" s="66"/>
-      <c r="BI17" s="66"/>
-      <c r="BJ17" s="74"/>
-      <c r="BK17" s="74"/>
-      <c r="BL17" s="74"/>
-      <c r="BM17" s="74"/>
-      <c r="BN17" s="64"/>
-      <c r="BO17" s="59"/>
-    </row>
-    <row r="18" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50"/>
-      <c r="C18" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="47">
-        <v>44568</v>
-      </c>
-      <c r="E18" s="16">
-        <v>12</v>
-      </c>
-      <c r="F18" s="47">
-        <v>2</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="59"/>
-      <c r="BO18" s="59"/>
-    </row>
-    <row r="19" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="50"/>
-      <c r="C19" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="47">
-        <v>44587</v>
-      </c>
-      <c r="E19" s="16">
-        <v>4</v>
       </c>
       <c r="F19" s="47">
         <v>2</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
-      <c r="AU19" s="59"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="59"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="59"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="59"/>
-    </row>
-    <row r="20" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50"/>
-      <c r="C20" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="47">
-        <v>44587</v>
-      </c>
-      <c r="E20" s="16">
-        <v>6</v>
+      <c r="G19" s="59"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="83"/>
+    </row>
+    <row r="20" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="58"/>
+      <c r="C20" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98" t="s">
+        <v>61</v>
       </c>
       <c r="F20" s="47">
         <v>2</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="59"/>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="59"/>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="59"/>
-      <c r="BJ20" s="59"/>
-      <c r="BK20" s="59"/>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-      <c r="BN20" s="59"/>
-      <c r="BO20" s="59"/>
-    </row>
-    <row r="21" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="50"/>
-      <c r="C21" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="47">
+      <c r="G20" s="59"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="119"/>
+      <c r="AR20" s="119"/>
+      <c r="AS20" s="119"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="83"/>
+    </row>
+    <row r="21" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="58"/>
+      <c r="C21" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="100">
         <v>44596</v>
       </c>
-      <c r="E21" s="16">
-        <v>8</v>
-      </c>
-      <c r="F21" s="47">
+      <c r="E21" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="111">
         <v>2</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
-    </row>
-    <row r="22" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="50"/>
-      <c r="C22" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="47">
-        <v>44609</v>
-      </c>
-      <c r="E22" s="16">
-        <v>4</v>
-      </c>
-      <c r="F22" s="47">
+      <c r="G21" s="112"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="88"/>
+      <c r="AM21" s="88"/>
+      <c r="AN21" s="88"/>
+      <c r="AO21" s="88"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
+      <c r="AX21" s="115"/>
+      <c r="AY21" s="115"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="76"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="76"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="76"/>
+      <c r="BK21" s="76"/>
+      <c r="BL21" s="76"/>
+      <c r="BM21" s="76"/>
+      <c r="BN21" s="116"/>
+    </row>
+    <row r="22" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="58"/>
+      <c r="C22" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="102">
         <v>2</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="59"/>
-      <c r="BC22" s="59"/>
-      <c r="BD22" s="59"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="59"/>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
-      <c r="BL22" s="59"/>
-      <c r="BM22" s="59"/>
-      <c r="BN22" s="59"/>
-      <c r="BO22" s="59"/>
-    </row>
-    <row r="23" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="50"/>
-      <c r="C23" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="47">
-        <v>44616</v>
-      </c>
-      <c r="E23" s="16">
-        <v>3</v>
-      </c>
-      <c r="F23" s="47">
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="125"/>
+      <c r="AW22" s="125"/>
+      <c r="AX22" s="125"/>
+      <c r="AY22" s="125"/>
+      <c r="AZ22" s="124"/>
+      <c r="BA22" s="125"/>
+      <c r="BB22" s="125"/>
+      <c r="BC22" s="125"/>
+      <c r="BD22" s="125"/>
+      <c r="BE22" s="124"/>
+      <c r="BF22" s="125"/>
+      <c r="BG22" s="125"/>
+      <c r="BH22" s="125"/>
+      <c r="BI22" s="125"/>
+      <c r="BJ22" s="124"/>
+      <c r="BK22" s="125"/>
+      <c r="BL22" s="125"/>
+      <c r="BM22" s="125"/>
+      <c r="BN22" s="126"/>
+    </row>
+    <row r="23" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="58"/>
+      <c r="C23" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="140">
+        <v>44602</v>
+      </c>
+      <c r="E23" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="127">
         <v>2</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="59"/>
-      <c r="AU23" s="59"/>
-      <c r="AV23" s="59"/>
-      <c r="AW23" s="59"/>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="59"/>
-      <c r="BC23" s="59"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
-      <c r="BK23" s="59"/>
-      <c r="BL23" s="59"/>
-      <c r="BM23" s="59"/>
-      <c r="BN23" s="59"/>
-      <c r="BO23" s="59"/>
-    </row>
-    <row r="24" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="50"/>
-      <c r="C24" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="47">
-        <v>44571</v>
-      </c>
-      <c r="E24" s="16">
-        <v>8</v>
-      </c>
-      <c r="F24" s="47">
+      <c r="G23" s="128"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="129"/>
+      <c r="AJ23" s="129"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="129"/>
+      <c r="AM23" s="129"/>
+      <c r="AN23" s="129"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="129"/>
+      <c r="AR23" s="129"/>
+      <c r="AS23" s="129"/>
+      <c r="AT23" s="129"/>
+      <c r="AU23" s="128"/>
+      <c r="AV23" s="129"/>
+      <c r="AW23" s="129"/>
+      <c r="AX23" s="129"/>
+      <c r="AY23" s="129"/>
+      <c r="AZ23" s="119"/>
+      <c r="BA23" s="119"/>
+      <c r="BB23" s="119"/>
+      <c r="BC23" s="119"/>
+      <c r="BD23" s="119"/>
+      <c r="BE23" s="119"/>
+      <c r="BF23" s="119"/>
+      <c r="BG23" s="119"/>
+      <c r="BH23" s="119"/>
+      <c r="BI23" s="119"/>
+      <c r="BJ23" s="75"/>
+      <c r="BK23" s="75"/>
+      <c r="BL23" s="75"/>
+      <c r="BM23" s="75"/>
+      <c r="BN23" s="130"/>
+    </row>
+    <row r="24" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="58"/>
+      <c r="C24" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="146">
+        <v>44568</v>
+      </c>
+      <c r="E24" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="71">
         <v>2</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="59"/>
-      <c r="AV24" s="59"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="59"/>
-      <c r="BA24" s="59"/>
-      <c r="BB24" s="59"/>
-      <c r="BC24" s="59"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="59"/>
-      <c r="BJ24" s="59"/>
-      <c r="BK24" s="59"/>
-      <c r="BL24" s="59"/>
-      <c r="BM24" s="59"/>
-      <c r="BN24" s="59"/>
-      <c r="BO24" s="59"/>
-    </row>
-    <row r="25" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
-      <c r="C25" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="47">
-        <v>44573</v>
-      </c>
-      <c r="E25" s="16">
-        <v>3</v>
-      </c>
-      <c r="F25" s="47">
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="131"/>
+      <c r="AJ24" s="131"/>
+      <c r="AK24" s="131"/>
+      <c r="AL24" s="131"/>
+      <c r="AM24" s="131"/>
+      <c r="AN24" s="131"/>
+      <c r="AO24" s="131"/>
+      <c r="AP24" s="131"/>
+      <c r="AQ24" s="131"/>
+      <c r="AR24" s="131"/>
+      <c r="AS24" s="131"/>
+      <c r="AT24" s="131"/>
+      <c r="AU24" s="131"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="131"/>
+      <c r="AX24" s="131"/>
+      <c r="AY24" s="131"/>
+      <c r="AZ24" s="121"/>
+      <c r="BA24" s="121"/>
+      <c r="BB24" s="121"/>
+      <c r="BC24" s="121"/>
+      <c r="BD24" s="121"/>
+      <c r="BE24" s="121"/>
+      <c r="BF24" s="121"/>
+      <c r="BG24" s="121"/>
+      <c r="BH24" s="121"/>
+      <c r="BI24" s="121"/>
+      <c r="BJ24" s="131"/>
+      <c r="BK24" s="131"/>
+      <c r="BL24" s="131"/>
+      <c r="BM24" s="131"/>
+      <c r="BN24" s="132"/>
+    </row>
+    <row r="25" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="58"/>
+      <c r="C25" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="134"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="129"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="129"/>
+      <c r="AF25" s="129"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="119"/>
+      <c r="BA25" s="119"/>
+      <c r="BB25" s="119"/>
+      <c r="BC25" s="119"/>
+      <c r="BD25" s="119"/>
+      <c r="BE25" s="119"/>
+      <c r="BF25" s="119"/>
+      <c r="BG25" s="119"/>
+      <c r="BH25" s="119"/>
+      <c r="BI25" s="119"/>
+      <c r="BJ25" s="119"/>
+      <c r="BK25" s="119"/>
+      <c r="BL25" s="119"/>
+      <c r="BM25" s="119"/>
+      <c r="BN25" s="135"/>
+    </row>
+    <row r="26" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="58"/>
+      <c r="C26" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="150" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="131"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="131"/>
+      <c r="AM26" s="131"/>
+      <c r="AN26" s="131"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="131"/>
+      <c r="AS26" s="131"/>
+      <c r="AT26" s="131"/>
+      <c r="AU26" s="131"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="131"/>
+      <c r="AX26" s="131"/>
+      <c r="AY26" s="131"/>
+      <c r="AZ26" s="131"/>
+      <c r="BA26" s="131"/>
+      <c r="BB26" s="131"/>
+      <c r="BC26" s="131"/>
+      <c r="BD26" s="131"/>
+      <c r="BE26" s="131"/>
+      <c r="BF26" s="131"/>
+      <c r="BG26" s="131"/>
+      <c r="BH26" s="131"/>
+      <c r="BI26" s="131"/>
+      <c r="BJ26" s="121"/>
+      <c r="BK26" s="121"/>
+      <c r="BL26" s="121"/>
+      <c r="BM26" s="121"/>
+      <c r="BN26" s="122"/>
+    </row>
+    <row r="27" spans="2:66" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
+      <c r="C27" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="152">
+        <v>44587</v>
+      </c>
+      <c r="E27" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="133">
         <v>2</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="59"/>
-      <c r="BA25" s="59"/>
-      <c r="BB25" s="59"/>
-      <c r="BC25" s="59"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59"/>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
-      <c r="BN25" s="59"/>
-      <c r="BO25" s="59"/>
-    </row>
-    <row r="26" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
-      <c r="C26" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="47">
-        <v>44578</v>
-      </c>
-      <c r="E26" s="16">
-        <v>6</v>
-      </c>
-      <c r="F26" s="47">
-        <v>2</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="59"/>
-    </row>
-    <row r="27" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="50"/>
-      <c r="C27" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="47">
-        <v>44588</v>
-      </c>
-      <c r="E27" s="16">
-        <v>4</v>
-      </c>
-      <c r="F27" s="47">
-        <v>2</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="59"/>
-      <c r="BC27" s="59"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
-      <c r="BJ27" s="59"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
-      <c r="BN27" s="59"/>
-      <c r="BO27" s="59"/>
-    </row>
-    <row r="28" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="91"/>
+      <c r="AN27" s="91"/>
+      <c r="AO27" s="91"/>
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="91"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="91"/>
+      <c r="BJ27" s="91"/>
+      <c r="BK27" s="91"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="91"/>
+      <c r="BN27" s="123"/>
+    </row>
+    <row r="28" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="50"/>
       <c r="C28" s="45" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D28" s="47">
-        <v>44599</v>
+        <v>44587</v>
       </c>
       <c r="E28" s="16">
         <v>6</v>
@@ -3881,163 +4393,499 @@
       <c r="F28" s="47">
         <v>2</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="59"/>
-      <c r="AU28" s="59"/>
-      <c r="AV28" s="59"/>
-      <c r="AW28" s="59"/>
-      <c r="AX28" s="59"/>
-      <c r="AY28" s="59"/>
-      <c r="AZ28" s="59"/>
-      <c r="BA28" s="59"/>
-      <c r="BB28" s="59"/>
-      <c r="BC28" s="59"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
-      <c r="BI28" s="59"/>
-      <c r="BJ28" s="59"/>
-      <c r="BK28" s="59"/>
-      <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
-      <c r="BN28" s="59"/>
-      <c r="BO28" s="59"/>
-    </row>
-    <row r="29" spans="2:67" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+    </row>
+    <row r="29" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="50"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="47" t="str">
-        <f t="shared" ref="F9:F29" si="45">IF(ISBLANK(start_date), "",IF(duration=0,start_date,WORKDAY(start_date,duration-1)))</f>
+      <c r="C29" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="47">
+        <v>44596</v>
+      </c>
+      <c r="E29" s="16">
+        <v>8</v>
+      </c>
+      <c r="F29" s="47">
+        <v>2</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+    </row>
+    <row r="30" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="50"/>
+      <c r="C30" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="47">
+        <v>44609</v>
+      </c>
+      <c r="E30" s="16">
+        <v>4</v>
+      </c>
+      <c r="F30" s="47">
+        <v>2</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+    </row>
+    <row r="31" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="50"/>
+      <c r="C31" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="47">
+        <v>44616</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3</v>
+      </c>
+      <c r="F31" s="47">
+        <v>2</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+    </row>
+    <row r="32" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="50"/>
+      <c r="C32" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="47">
+        <v>44571</v>
+      </c>
+      <c r="E32" s="16">
+        <v>8</v>
+      </c>
+      <c r="F32" s="47">
+        <v>2</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+    </row>
+    <row r="33" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="50"/>
+      <c r="C33" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="47">
+        <v>44573</v>
+      </c>
+      <c r="E33" s="16">
+        <v>3</v>
+      </c>
+      <c r="F33" s="47">
+        <v>2</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+    </row>
+    <row r="34" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="50"/>
+      <c r="C34" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="47">
+        <v>44578</v>
+      </c>
+      <c r="E34" s="16">
+        <v>6</v>
+      </c>
+      <c r="F34" s="47">
+        <v>2</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+    </row>
+    <row r="35" spans="2:66" s="5" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50"/>
+      <c r="C35" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="47">
+        <v>44588</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4</v>
+      </c>
+      <c r="F35" s="47">
+        <v>2</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+    </row>
+    <row r="36" spans="2:66" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="47">
+        <v>44599</v>
+      </c>
+      <c r="E36" s="16">
+        <v>6</v>
+      </c>
+      <c r="F36" s="47">
+        <v>2</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+    </row>
+    <row r="37" spans="2:66" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="45"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="47" t="str">
+        <f t="shared" ref="F37" si="45">IF(ISBLANK(start_date), "",IF(duration=0,start_date,WORKDAY(start_date,duration-1)))</f>
         <v/>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="59"/>
-      <c r="AV29" s="59"/>
-      <c r="AW29" s="59"/>
-      <c r="AX29" s="59"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="59"/>
-      <c r="BA29" s="59"/>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="59"/>
-      <c r="BD29" s="59"/>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="59"/>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="59"/>
-      <c r="BM29" s="59"/>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="59"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="BJ16:BN16"/>
-    <mergeCell ref="BJ17:BM17"/>
-    <mergeCell ref="AP15:AT15"/>
-    <mergeCell ref="AU15:AY15"/>
-    <mergeCell ref="AU16:AY16"/>
-    <mergeCell ref="AZ16:BD16"/>
-    <mergeCell ref="BE16:BI16"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AK14:AO14"/>
-    <mergeCell ref="AK15:AO15"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="V12:Z12"/>
+  <mergeCells count="53">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="G3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="AP5:AT5"/>
+    <mergeCell ref="BE5:BI5"/>
+    <mergeCell ref="BJ5:BN5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="AZ5:BD5"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="BJ7:BN7"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
     <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="AF7:AJ7"/>
     <mergeCell ref="AK7:AO7"/>
     <mergeCell ref="AP7:AT7"/>
@@ -4048,24 +4896,26 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="V7:Z7"/>
     <mergeCell ref="AA7:AE7"/>
-    <mergeCell ref="BE5:BI5"/>
-    <mergeCell ref="BJ5:BN5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="AZ5:BD5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="AP5:AT5"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="G3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AK20:AO20"/>
+    <mergeCell ref="AK21:AO21"/>
+    <mergeCell ref="BJ22:BN22"/>
+    <mergeCell ref="BJ23:BM23"/>
+    <mergeCell ref="AP21:AT21"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AZ22:BD22"/>
+    <mergeCell ref="BE22:BI22"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C9:C29">
+  <conditionalFormatting sqref="C9:C37">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>OR(type="T")</formula>
     </cfRule>
@@ -4073,17 +4923,17 @@
       <formula>OR(type="P")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F29">
+  <conditionalFormatting sqref="F8:F37">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>_xlfn.ISFORMULA(end_date)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BN6 G8:BN8 G7 L7 Q7 AA7 AK7 AU7 BE7 V7 AF7 AP7 AZ7 BJ7 G18:BN29 Q9:BN9 L9 L10:BN10 Q11 V11:BN11 AK13:BN13 AP14:BN14 AZ15:BN15 AZ16 BE16 BJ16 BN17 AZ17:BJ17 L12:Q12 G9:G17 L11:L17 G13:Q17 V12:V17 AF13:AF17 AK14:AK17 AP15:AP17 AU15:AU17 AC12:BN12 AA12:AA17">
+  <conditionalFormatting sqref="G5:BN6 G7 L7 Q7 V7 AA7 AF7 AK7 AP7 AU7 AZ7 BE7 BJ7 L10 Q10:BN10 L11:BN11 Q12 V12:BN12 AK19:BN19 AF19:AF23 AP20:BN20 AK20:AK23 AZ21:BN21 AP21:AP23 AU21:AU23 AZ22 BE22 BJ22 AZ23:BJ23 BN23 G24:BN37 G8:BN9 L12:L13 G19:Q23 G10:G18 AA13:AA23 AC13:BN18 V13:V23 L13:Q18">
     <cfRule type="expression" dxfId="1" priority="23">
       <formula>WEEKDAY(date,2)&gt;WEEKDAY(next_date,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:BN29 Q9:BN9 L9 L10:BN10 Q11 V11:BN11 AK13:BN13 AP14:BN14 AZ15:BN15 AZ16 BE16 BJ16 BN17 AZ17:BJ17 L12:Q12 G9:G17 L11:L17 G13:Q17 V12:V17 AF13:AF17 AK14:AK17 AP15:AP17 AU15:AU17 AC12:BN12 AA12:AA17">
+  <conditionalFormatting sqref="L10 Q10:BN10 L11:BN11 Q12 V12:BN12 AK19:BN19 AF19:AF23 AP20:BN20 AK20:AK23 AZ21:BN21 AP21:AP23 AU21:AU23 AZ22 BE22 BJ22 AZ23:BJ23 BN23 G24:BN37 L12:L13 G19:Q23 G10:G18 AA13:AA23 AC13:BN18 V13:V23 L13:Q18">
     <cfRule type="expression" dxfId="0" priority="30">
       <formula>AND(NOT(ISBLANK(start_date)),date&gt;=start_date,date&lt;=end_date)</formula>
     </cfRule>
@@ -4110,7 +4960,7 @@
                     <xdr:col>66</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4144,142 +4994,142 @@
   <sheetData>
     <row r="12" spans="2:4" s="39" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="38"/>
     </row>
     <row r="13" spans="2:4" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="42"/>
       <c r="E17" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="42"/>
       <c r="E19" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="42"/>
       <c r="E20" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="42"/>
       <c r="E21" s="44"/>
       <c r="F21" s="41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="43"/>
     </row>
     <row r="23" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="42"/>
       <c r="E23" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="42"/>
       <c r="E24" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:6" s="39" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="38"/>
     </row>
     <row r="27" spans="2:6" s="39" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37"/>
       <c r="C27" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37"/>
       <c r="C28" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
